--- a/Unity/Assets/Res/Model/hero006/hero006.xlsx
+++ b/Unity/Assets/Res/Model/hero006/hero006.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Unity\Assets\Res\Model\hero006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645A5DC-296A-4157-944D-E667091CFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB3B0B-AB86-466E-B7B6-ABAA3078D19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="4340" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>idle</t>
   </si>
@@ -33,36 +31,28 @@
     <t>attacked</t>
   </si>
   <si>
+    <t>attack1</t>
+  </si>
+  <si>
+    <t>passive1</t>
+  </si>
+  <si>
+    <t>passive2</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>reborn</t>
+  </si>
+  <si>
+    <t>attack2</t>
+  </si>
+  <si>
     <t>run</t>
-  </si>
-  <si>
-    <t>attack1</t>
-  </si>
-  <si>
-    <t>passive1</t>
-  </si>
-  <si>
-    <t>passive2</t>
-  </si>
-  <si>
-    <t>active_1</t>
-  </si>
-  <si>
-    <t>active_2</t>
-  </si>
-  <si>
-    <t>attack2</t>
-  </si>
-  <si>
-    <t>reborn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dump</t>
   </si>
 </sst>
 </file>
@@ -115,11 +105,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" activeCellId="1" sqref="A13:C13 M20"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -438,10 +431,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>10</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>50</v>
       </c>
     </row>
@@ -449,10 +442,10 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>110</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>130</v>
       </c>
     </row>
@@ -460,21 +453,21 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>140</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>60</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>100</v>
       </c>
     </row>
@@ -482,132 +475,85 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>210</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>260</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>330</v>
+      </c>
+      <c r="C7" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>390</v>
+      </c>
+      <c r="C8" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>330</v>
-      </c>
-      <c r="C7">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>390</v>
-      </c>
-      <c r="C8">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>390</v>
-      </c>
-      <c r="C9">
-        <v>428</v>
+      <c r="B9" s="2">
+        <v>530</v>
+      </c>
+      <c r="C9" s="2">
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>429</v>
-      </c>
-      <c r="C10">
-        <v>470</v>
+      <c r="B10" s="2">
+        <v>570</v>
+      </c>
+      <c r="C10" s="2">
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>530</v>
-      </c>
-      <c r="C11">
-        <v>585</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>490</v>
+      </c>
+      <c r="C11" s="2">
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>570</v>
-      </c>
-      <c r="C12">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>490</v>
-      </c>
-      <c r="C13">
-        <v>514</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/Unity/Assets/Res/Model/hero006/hero006.xlsx
+++ b/Unity/Assets/Res/Model/hero006/hero006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Unity\Assets\Res\Model\hero006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB3B0B-AB86-466E-B7B6-ABAA3078D19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC68C1F7-AE68-4EA9-B7E1-DCD0596BBC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +422,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>390</v>
       </c>
       <c r="C8" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
